--- a/results/pvalue_SIDER_all_transporter_AUPR.xlsx
+++ b/results/pvalue_SIDER_all_transporter_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.026</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6.554</t>
+          <t>4.704</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.146</t>
+          <t>5.039</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.544</t>
+          <t>5.244</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.168</t>
+          <t>3.455</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29.403</t>
+          <t>29.398</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29.93</t>
+          <t>29.925</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>31.863</t>
+          <t>31.858</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28.44</t>
+          <t>28.435</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>19.167</t>
+          <t>15.589</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
